--- a/Config/钻石联赛.xlsx
+++ b/Config/钻石联赛.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="7"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83">
   <si>
     <t>阶段（1-7）对应海选到总决赛</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>2019-2-17 17:20:59</t>
+  </si>
+  <si>
+    <t>45666</t>
   </si>
   <si>
     <t>2019-2-17 17:30:00</t>
@@ -276,8 +279,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -296,44 +299,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,52 +330,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,7 +353,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -438,6 +380,67 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -454,187 +457,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,25 +655,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -720,6 +705,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -753,10 +756,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -765,16 +768,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -783,115 +786,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2451,8 +2454,8 @@
   <sheetPr/>
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -2557,8 +2560,8 @@
       <c r="F3" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="3">
-        <v>2171</v>
+      <c r="G3" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="H3" s="3">
         <v>1</v>
@@ -2584,13 +2587,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G4" s="3">
         <v>2171</v>
@@ -2605,7 +2608,7 @@
         <v>37</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2619,13 +2622,13 @@
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G5" s="3">
         <v>2171</v>
@@ -2640,7 +2643,7 @@
         <v>37</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2654,13 +2657,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G6" s="3">
         <v>2171</v>
@@ -2675,7 +2678,7 @@
         <v>37</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2689,13 +2692,13 @@
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G7" s="3">
         <v>2171</v>
@@ -2710,7 +2713,7 @@
         <v>37</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2724,13 +2727,13 @@
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G8" s="3">
         <v>2171</v>
@@ -2745,7 +2748,7 @@
         <v>37</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2777,10 +2780,10 @@
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2791,7 +2794,7 @@
         <v>52</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2816,7 +2819,7 @@
         <v>43</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -2894,7 +2897,7 @@
   <sheetPr/>
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -2905,7 +2908,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:1">
